--- a/data/hotels_by_city/Dallas/Dallas_shard_725.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_725.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="477">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1308 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r567742237-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>55557</t>
+  </si>
+  <si>
+    <t>109164</t>
+  </si>
+  <si>
+    <t>567742237</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Me time</t>
+  </si>
+  <si>
+    <t>Have not stayed at this location before but wasVery pleased how clean and  friendly staff and quiet. Stayed an extra day MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>April F, Front Office Manager at Super 8 Burleson Fort Worth Area, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Have not stayed at this location before but wasVery pleased how clean and  friendly staff and quiet. Stayed an extra day More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r567423511-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>567423511</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Enjoyed it</t>
+  </si>
+  <si>
+    <t>The motel met all my expectations for a Super 8. The room was clean and, right temperature and easy access to internet. Would definitely stay againMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>April F, Front Office Manager at Super 8 Burleson Fort Worth Area, responded to this reviewResponded March 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2018</t>
+  </si>
+  <si>
+    <t>The motel met all my expectations for a Super 8. The room was clean and, right temperature and easy access to internet. Would definitely stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r563239809-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>563239809</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Overwhelming odors...</t>
+  </si>
+  <si>
+    <t>It had vacancy &amp; was cheap. That’s about all I can say positive. It had a live roach, stunk of fried foods. Smells of weed became overwhelmingly strong around 10 pm. Cigarette smoke became overwhelming at 9 am. There was hair in the tub- not ours. The beds were hard as rocks, and the pillows tiny/clumpy.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>It had vacancy &amp; was cheap. That’s about all I can say positive. It had a live roach, stunk of fried foods. Smells of weed became overwhelmingly strong around 10 pm. Cigarette smoke became overwhelming at 9 am. There was hair in the tub- not ours. The beds were hard as rocks, and the pillows tiny/clumpy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r551859834-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>551859834</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Good hotel.</t>
+  </si>
+  <si>
+    <t>The hotel bathroom was clean. Lately every hotel we are in has a dirty bathroom. There was no clock. It was small compared to other hotels but make up for it by having good staff and room.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The hotel bathroom was clean. Lately every hotel we are in has a dirty bathroom. There was no clock. It was small compared to other hotels but make up for it by having good staff and room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r541250950-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>541250950</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Home for the weekend</t>
+  </si>
+  <si>
+    <t>I stay at this hotel when my friend comes into town a few times a month. It's nothing luxuriou, but very quiet and quant to pass the weekend. Cleanliness is key and the room and bedding is always clean... and most important... NO BED BUGS.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>I stay at this hotel when my friend comes into town a few times a month. It's nothing luxuriou, but very quiet and quant to pass the weekend. Cleanliness is key and the room and bedding is always clean... and most important... NO BED BUGS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r538102874-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>538102874</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Sleep for a night</t>
+  </si>
+  <si>
+    <t>I just came here to sleep. The rooms are old and the bar that holds the shower curtain was falling down. It needs to be updated, but I was able to sleep even though some kids were running up and down the halls.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I just came here to sleep. The rooms are old and the bar that holds the shower curtain was falling down. It needs to be updated, but I was able to sleep even though some kids were running up and down the halls.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r531240865-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>531240865</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Work trip</t>
+  </si>
+  <si>
+    <t>This is a very good hotel I stay here every time I’m in town on business all the employees treat you great it has great access to good restaurants and shopping MoreShow less</t>
+  </si>
+  <si>
+    <t>April F, Manager at Super 8 Burleson Fort Worth Area, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>This is a very good hotel I stay here every time I’m in town on business all the employees treat you great it has great access to good restaurants and shopping More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r527852026-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>527852026</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Worst stay ever</t>
+  </si>
+  <si>
+    <t>The rooms stuck of cigarette smoke and marijuana and mildew. The shower curtain fell during my shower. Will not stay at this hotel ever again nor will I refer any family or friends MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>The rooms stuck of cigarette smoke and marijuana and mildew. The shower curtain fell during my shower. Will not stay at this hotel ever again nor will I refer any family or friends More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r525487639-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>525487639</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r507926946-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>507926946</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Started out crazy but still manage to have a good couple of days off.</t>
+  </si>
+  <si>
+    <t>My trip started with me having issues when trying to book rooms via the internet.  System was acting up and appeared to freeze.  Finally received message that the Reservation portal was undergoing maintenance and to call directly.Made reservations by phone but did not receive any confirmations.  I called the day before leaving and was told I had four reservations.  Needless to say I spoke to 8 different people on the phone with no resolution.When I arrived April managed to help get it resolved and duplication was taken care of.  I won't be booking via the internet on this site.  Not worth it.The stay did turn out well.  Rooms were clean and comfortable for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>My trip started with me having issues when trying to book rooms via the internet.  System was acting up and appeared to freeze.  Finally received message that the Reservation portal was undergoing maintenance and to call directly.Made reservations by phone but did not receive any confirmations.  I called the day before leaving and was told I had four reservations.  Needless to say I spoke to 8 different people on the phone with no resolution.When I arrived April managed to help get it resolved and duplication was taken care of.  I won't be booking via the internet on this site.  Not worth it.The stay did turn out well.  Rooms were clean and comfortable for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r505520485-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>505520485</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>July Wedding Stay</t>
+  </si>
+  <si>
+    <t>Hotel could have been a lot cleaner. Toilet had a lot of problems flushing. It was only $50/night, so, I guess you get what you pay for. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Hotel could have been a lot cleaner. Toilet had a lot of problems flushing. It was only $50/night, so, I guess you get what you pay for. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r496582166-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>496582166</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Front desk help went above and beyond</t>
+  </si>
+  <si>
+    <t>We had reservations and had to make changes twice due to a death in the family. Front desk personnel was wonderful even changing our reservations at time of check in and even offered us a discount. Then checked on us once we got to our rooms. We were very satisfied with our quiet room and very comfy bed. The breakfast was very adequate for everyone in our group, we especially like that there was fresh fruit and Texas shaped Waffles. If in the area we would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>We had reservations and had to make changes twice due to a death in the family. Front desk personnel was wonderful even changing our reservations at time of check in and even offered us a discount. Then checked on us once we got to our rooms. We were very satisfied with our quiet room and very comfy bed. The breakfast was very adequate for everyone in our group, we especially like that there was fresh fruit and Texas shaped Waffles. If in the area we would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r492441776-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>492441776</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Multiple Visits</t>
+  </si>
+  <si>
+    <t>I am a frequent traveler between Illinois and Texas. I have stayed at the Super 8 in Burleson many times and I have never had a bad experience. The only negative would be the breakfast does not meet the same level of Very Good, but is only Fair. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>I am a frequent traveler between Illinois and Texas. I have stayed at the Super 8 in Burleson many times and I have never had a bad experience. The only negative would be the breakfast does not meet the same level of Very Good, but is only Fair. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r491149833-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>491149833</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This Motel is located near the freeway with easy  on and off access. Motel  within minutes of major large shopping center and  numerous restaurants for any taste and budget. The staff were friendly, helpful, the room was clean and the sheets fresh! Regular sized pool you can really swim around in and a shower with real hot water to soothe those tense muscles from traveling all day. Yes, this is one we will be coming back to!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>This Motel is located near the freeway with easy  on and off access. Motel  within minutes of major large shopping center and  numerous restaurants for any taste and budget. The staff were friendly, helpful, the room was clean and the sheets fresh! Regular sized pool you can really swim around in and a shower with real hot water to soothe those tense muscles from traveling all day. Yes, this is one we will be coming back to!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r489827645-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>489827645</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Everything was great. Until the morning when we wanted to take a SHOWER... the shower head it's self did not work. There was no way to get the water to flow into the shower head so my husband, kids and myself had to take baths. Which it was ok but we all prefer showers. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Everything was great. Until the morning when we wanted to take a SHOWER... the shower head it's self did not work. There was no way to get the water to flow into the shower head so my husband, kids and myself had to take baths. Which it was ok but we all prefer showers. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r476557894-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>476557894</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Not handicap assessible</t>
+  </si>
+  <si>
+    <t>Reservation was set for 2nd floor. Found out upon check in, No elevators. Asked for 1st floor. Computers were down and not able change. Pool was down. Next day, when cking out computers still down, no receipt available. Overall Room price too high when quality compared to other hotels in area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Reservation was set for 2nd floor. Found out upon check in, No elevators. Asked for 1st floor. Computers were down and not able change. Pool was down. Next day, when cking out computers still down, no receipt available. Overall Room price too high when quality compared to other hotels in area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r471453954-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>471453954</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Gibbs family</t>
+  </si>
+  <si>
+    <t>Glad to get a ground king room. Was a non smoking room, but the hallway reaked of smoke. The room was clean though. Came to see family and got a good rest between visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2017</t>
+  </si>
+  <si>
+    <t>Glad to get a ground king room. Was a non smoking room, but the hallway reaked of smoke. The room was clean though. Came to see family and got a good rest between visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r470954257-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>470954257</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Amazed</t>
+  </si>
+  <si>
+    <t>I was very surprised to find this hotel with such quality. The room was quiet and check-in was smooth. The only problem I had was they tried to charge my card before I actually arrived. I discussed my problem with the hotel rep. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very surprised to find this hotel with such quality. The room was quiet and check-in was smooth. The only problem I had was they tried to charge my card before I actually arrived. I discussed my problem with the hotel rep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r452826980-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>452826980</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Ok hotel for the price.</t>
+  </si>
+  <si>
+    <t>A cheap hotel but good for the price. It is one of those older revamped hotels but it was clean and managed well. The lobby was nice and the continental breakfast was adequate. Rooms were easy to access not far from parking area. The room I had was small but clean and everything worked in the room which is becoming a rare with these older hotels. I was there on September 10th attending the TCU vs Arkansas game and the hotel is away from the city of Fort Worth which I like. Only about 10 or 11 miles from Amon Carter Stadium. Restaurants and convenient stores are very close to the hotel. A nice McDonalds is just across the street a very short walking distance away. The freeway is also very quick to access. All in all a nice cheap stay for a college football game if your not looking for anything special. It had also a little fridge and microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>A cheap hotel but good for the price. It is one of those older revamped hotels but it was clean and managed well. The lobby was nice and the continental breakfast was adequate. Rooms were easy to access not far from parking area. The room I had was small but clean and everything worked in the room which is becoming a rare with these older hotels. I was there on September 10th attending the TCU vs Arkansas game and the hotel is away from the city of Fort Worth which I like. Only about 10 or 11 miles from Amon Carter Stadium. Restaurants and convenient stores are very close to the hotel. A nice McDonalds is just across the street a very short walking distance away. The freeway is also very quick to access. All in all a nice cheap stay for a college football game if your not looking for anything special. It had also a little fridge and microwave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r442906736-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>442906736</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Travel Overnight</t>
+  </si>
+  <si>
+    <t>This Super 8 was clean and I had no major concerns with the room. The breakfast is not the best. I have stayed at this motel three or four times though and except for the disappointing breakfast, I have been satisfied enough to return. Cost is reasonable. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>This Super 8 was clean and I had no major concerns with the room. The breakfast is not the best. I have stayed at this motel three or four times though and except for the disappointing breakfast, I have been satisfied enough to return. Cost is reasonable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r440773288-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>440773288</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Good location. Great rate.</t>
+  </si>
+  <si>
+    <t>After a tiring day of driving, we were fortunate to find this Super 8. The room was quiet and clean, beds were comfortable, and since it was on the first floor, we didn't have to haul any luggage upstairs. Our only complaint was that although our room was a non-smoking room, the hallway outside of our room absolutely reeked of smoke. The hotel was also close to several places to eat. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>After a tiring day of driving, we were fortunate to find this Super 8. The room was quiet and clean, beds were comfortable, and since it was on the first floor, we didn't have to haul any luggage upstairs. Our only complaint was that although our room was a non-smoking room, the hallway outside of our room absolutely reeked of smoke. The hotel was also close to several places to eat. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r431236804-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>431236804</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Great value!!!</t>
+  </si>
+  <si>
+    <t>Everything was good except the coffee cups are to small and the hotel requires you to eat breakfast in lobby. You can't take it to go or take back to room. And the hall ways always smell of heavy cigarette smoke!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Everything was good except the coffee cups are to small and the hotel requires you to eat breakfast in lobby. You can't take it to go or take back to room. And the hall ways always smell of heavy cigarette smoke!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r431063965-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>431063965</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Needs Work</t>
+  </si>
+  <si>
+    <t>Staff was excellent, condition of hotel was not. Bathroom tile was cracked, and not just a little. Other parts of the room needed repair also. Ice machine was broken. Need I go on? I moved to another hotel chain for my next four nights in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was excellent, condition of hotel was not. Bathroom tile was cracked, and not just a little. Other parts of the room needed repair also. Ice machine was broken. Need I go on? I moved to another hotel chain for my next four nights in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r430046329-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>430046329</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Great pet friendly place to stay</t>
+  </si>
+  <si>
+    <t>We travel with our Min Pin dog. We have stayed here several times when traveling through Dallas area. we will stay again on our next trip north.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r421793832-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>421793832</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>Great comfortable place to stay and relax. Blow off steam and get away from the weirdos in life, but as soon as you leave here they come like mindless zombies. Ahhhh!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r421580976-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>421580976</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>The staff was accommodating and rooms were clean. Would not have a problem staying there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r421537736-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>421537736</t>
+  </si>
+  <si>
+    <t>Professional service and clean rooms!</t>
+  </si>
+  <si>
+    <t>Very friendly customer service. I drive a commercial vehicle, so it's important to get a good nights sleep. The room was clean, well kept and quite. I would stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r407913391-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>407913391</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My daughter and I stopped here on our way back from a vacation in Colorado. The room was clean and comfortable. The bathroom in the room we stayed was very clean. I had a $25 Wyndham Rewards discount so the room was very inexpensive for the quality and comfort of the room. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r400452891-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>400452891</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Clean comfortable room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would have been even better if other customers would not have been smoking pot in the hallways around our room </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r393364480-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>393364480</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Stayed Cheap for a class reunion.</t>
+  </si>
+  <si>
+    <t>Basic and clean. Surprisingly quiet. Easy to get to from the interstate. I didn't see an elevator but I was fine with the stairs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r387862433-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>387862433</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Family Vacation - Room not up to par</t>
+  </si>
+  <si>
+    <t>I have large family so we look for a place that could all of us. This location had a 3 Queen bed with a sleeper sofa. that room was a nice size. Plenty of room for us all to spread out and the kids to play with toys. With that said. the room / hotel is dated. needs a fresh coat of paint and some updates. The sleeper sofa - the springs were MISSING. So we took the mattress of the couch and laid it on the floor. The swimming pool was not clean, the kids were disappointed that they could not swim. We stayed 3 days in a room that sleeps up to 7 and only 4 towels were provided we asked for clean towels and an extra one the front desk lady gave is a hard time to get clean towels. The cleaning lady was the nicest and she gave us extra towels. but told us not to mention it to the front desk because the are not supposed to do that.finally after staying in the room for a day we noticed that my 3 yr old had red marks "bites on him" didn't think much of it. but the my oldest 16 yr old came down with the same "bites" and on the final day I also had several bites on me.. makes you think BED BUGS!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I have large family so we look for a place that could all of us. This location had a 3 Queen bed with a sleeper sofa. that room was a nice size. Plenty of room for us all to spread out and the kids to play with toys. With that said. the room / hotel is dated. needs a fresh coat of paint and some updates. The sleeper sofa - the springs were MISSING. So we took the mattress of the couch and laid it on the floor. The swimming pool was not clean, the kids were disappointed that they could not swim. We stayed 3 days in a room that sleeps up to 7 and only 4 towels were provided we asked for clean towels and an extra one the front desk lady gave is a hard time to get clean towels. The cleaning lady was the nicest and she gave us extra towels. but told us not to mention it to the front desk because the are not supposed to do that.finally after staying in the room for a day we noticed that my 3 yr old had red marks "bites on him" didn't think much of it. but the my oldest 16 yr old came down with the same "bites" and on the final day I also had several bites on me.. makes you think BED BUGS!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r381675492-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>381675492</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found the Super 8 to be very satisfactory in all ways except one. There was mold on walls and floor in bathroom especially associated with the cracked floor tiles. The front desk, when I reported it, indicated that they were in the process of a remodel for the bathrooms. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r380711658-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>380711658</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good place to stay </t>
+  </si>
+  <si>
+    <t>I have stayed here many times over the past 10 years. This hotel has had the same owners, and they have proven over the years, that they really know the hotel business!Always clean, quiet, and up to anyone's standards.This hotel is also in walking distance from several restaurants.I recommend this hotel for business and families.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r365411277-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>365411277</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Beware</t>
+  </si>
+  <si>
+    <t>I cannot recommend this motel, even with the low price. When we requested more towels (for a room with 5 people), we were given ONE towel. When we requested an alarm clock for the room, we were given two broken ones in a row. When we asked for an additional blanket, we were told that the last one had already been given out. The smell of carpet deodorizer was overpowering and not even completely vacuumed up (white powder behind the door).  The smell of smoke was clearly detected in the non smoking room because smoke comes in from the smoky hallways. The smoke smell and chemical smells in the non smoking room upstairs triggered an asthma attack in one of our children. One adult emerged with very large (50 cent sized) red bites of some kind, acquired from the bed. April at the desk was very kind and helpful, but limited in what she could do. I cannot recommend this place--- at any price. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I cannot recommend this motel, even with the low price. When we requested more towels (for a room with 5 people), we were given ONE towel. When we requested an alarm clock for the room, we were given two broken ones in a row. When we asked for an additional blanket, we were told that the last one had already been given out. The smell of carpet deodorizer was overpowering and not even completely vacuumed up (white powder behind the door).  The smell of smoke was clearly detected in the non smoking room because smoke comes in from the smoky hallways. The smoke smell and chemical smells in the non smoking room upstairs triggered an asthma attack in one of our children. One adult emerged with very large (50 cent sized) red bites of some kind, acquired from the bed. April at the desk was very kind and helpful, but limited in what she could do. I cannot recommend this place--- at any price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r359169834-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>359169834</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Weekend Visit</t>
+  </si>
+  <si>
+    <t>We were visiting relatives over Easter weekend and stayed for 2 nights.  We stayed here because they had a smoking room available on short notice. It was about what we expected for the price. Cleanliness was average, bed was on the hard side. Staff was friendly and we did not eat the complimentary breakfast but it looked to be acceptable. It is a decent place if you are on a budget.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r357095749-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>357095749</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>This motel was a good value over the one we have stayed with in the past. The room was roomy and laid out well. It was clean &amp; everything in good working order. My one complaint with the room was that the walls seemed very thin. We could hear people sneezing &amp; coughing on either side of us in their rooms. The heater/AC was super quiet when operating &amp; we had a good night's sleep in the king bed. Breakfast was fairly good, except on Sun morning at 7:10 am they were already out of waffle batter. There weren't many people there at breakfast either. Staff was very pleasant. We will stay here again. Saved about $60 over the Best Western for 2 nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel was a good value over the one we have stayed with in the past. The room was roomy and laid out well. It was clean &amp; everything in good working order. My one complaint with the room was that the walls seemed very thin. We could hear people sneezing &amp; coughing on either side of us in their rooms. The heater/AC was super quiet when operating &amp; we had a good night's sleep in the king bed. Breakfast was fairly good, except on Sun morning at 7:10 am they were already out of waffle batter. There weren't many people there at breakfast either. Staff was very pleasant. We will stay here again. Saved about $60 over the Best Western for 2 nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r341305237-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>341305237</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>great hotel/great price/convenient</t>
+  </si>
+  <si>
+    <t>This was a very clean hotel.  It is conveniently located and within walking distance to a number of restaurants.  I would stay here again and recommend it highly.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r341035393-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>341035393</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Business stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was fine.   The breakfast was also good.  Staff at the front desk were not helpful at times.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r339003925-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>339003925</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>Very accomodations, professional, and kind</t>
+  </si>
+  <si>
+    <t>Unexpectedly, in the middle of the night, my son and I found ourselves in need of a hotel because he had become very ill. We stayed at Motel 8 and found the staff so accommodating, kind, helpful, and informative. We were there 2 days and found it very peaceful. The housekeeping staff were sweethearts. Kudos to Motel 8! The price, the staff, the room...we would stay again should we ever find ourselves back in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r327450367-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>327450367</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>No King Suites on first floor--and no elevator</t>
+  </si>
+  <si>
+    <t>First of all our stay went fairly well. #1--I'm a DAV, need first floor room, can't do stairs. I reserved a King Suite and they did not have a King Suite on the first floor...#2-The stench of cigarette smoke was terrible in the hallway. The smell of smoke wasn't in our room, unless you turned on the bathroom fan. If you have asthma--cigarette smoke makes it so you can't breath. Think about that "Rama." You need a no-smoking hotel...</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r324539091-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>324539091</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Great Night after a long stressfull day!</t>
+  </si>
+  <si>
+    <t>Great location lots of restaurants within walking distance.People at the desk were wonderful and made our stay very enjoyable.Our drive through Fort Worth was very stressful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r323620242-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>323620242</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Surprisingly good stay!</t>
+  </si>
+  <si>
+    <t>Epic rainfall in Texas so all flights to Austin were cancelled. I opted to rent a car and drive south but needed a place to stay for the night. Super 8 wasn't my first choice but I'm glad I stayed. Sure, it's not as nice as say the Hilton but it had everything I needed and was provided a nice comfortable rest in a clean room. Service was great and while the rooms may not have been super nice, it was surprisingly sufficient and including a fridge, microwave, coffee and free breakfast. Price was reasonable too. Room included free wi-fi which was surprisingly fast. I would have no problem at all returning and will consider Super 8 more often because of this experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Epic rainfall in Texas so all flights to Austin were cancelled. I opted to rent a car and drive south but needed a place to stay for the night. Super 8 wasn't my first choice but I'm glad I stayed. Sure, it's not as nice as say the Hilton but it had everything I needed and was provided a nice comfortable rest in a clean room. Service was great and while the rooms may not have been super nice, it was surprisingly sufficient and including a fridge, microwave, coffee and free breakfast. Price was reasonable too. Room included free wi-fi which was surprisingly fast. I would have no problem at all returning and will consider Super 8 more often because of this experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r314133443-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>314133443</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Worst place ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I booked two rooms for out of town guest. I thought since this was a fairly new hotel and in Burleson ,tx it would be great. It smelled like smoke, my guest were afraid to stay, broke into car in parking lot. The room smelt bad bugs in the shower,dirty.The man behind the counter did not speak English very well. The worst of all they would not refund the rooms for the nights they didn't stay. Embrassing </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r314029629-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>314029629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disgusting and sketchy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not stay here. Unsafe area, questionable characters hanging around, filthy rooms, prostitution, drug deals, stench of weed, dirty rooms, unfriendly staff and security guard. The parking lot had heavy illegal activity going on in broad daylight and upon entering the halls they reeked of weed. Our room had stains on the walls, roaches (I counted 4), stains on the bedding, soiled fabric on the chairs and benches. The staff was extremely rude. DO NO STAY HERE. Disgusting. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r309117959-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>309117959</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Good review !!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was nice &amp; clean. INcluded everything I needed. But I had asked for a room closer to the lobby but room 112 was almost to the other end of hallway. There were plenty of vacant rooms for me to get a closer room. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r291309471-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>291309471</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice clean room. Very clean. Was just there over nite but if we could have stayed longer we would have. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r290696886-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>290696886</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Super 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservation made easy, staff was super!! Room clean, pool clean. Where they fail is the out dated coke machines on 2nd floor. Even though the room was no smoking, the halls smelled of old stale cigarette smoke.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r281870661-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>281870661</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Not well kept up</t>
+  </si>
+  <si>
+    <t>The sheets seemed a little greasy and the floors were damp and had an unpleasant smell. Breakfast was a bit underwhelming. The place would benefit from a little more TLC from management.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r261870532-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>261870532</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Nice Place to Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient location, cordial staff, clean room and breakfast. It would have been nice to have an elevator to the second floor as we had several trips worth of luggage that needed to come in. I would stay here again. </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r261525753-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>261525753</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>I have stayed at many of the super 8 motels. This one isn't one that I'm impressed with. The room read very out of date.  It was a no smoking room and the blanket had all kinds of burn marks and the actual AC unit was filled with something that I wouldn't turn the fan on. Looked like mold. If I had to do it again don't think I would stay here.  The staff was OK. But not very welcoming. Guess their cell phones were more important. And the entrance to the office smelled like fish. I think they watered the loads of plants they have with some kind of ferlizer or at least I'm hoping that's what it was. The towels had black marks all over them and stained. When you walked in it looked clean. No elevators. Stairs only. Sucks of you have a lot of things to bring in. Thank goodness it was only one night. MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at many of the super 8 motels. This one isn't one that I'm impressed with. The room read very out of date.  It was a no smoking room and the blanket had all kinds of burn marks and the actual AC unit was filled with something that I wouldn't turn the fan on. Looked like mold. If I had to do it again don't think I would stay here.  The staff was OK. But not very welcoming. Guess their cell phones were more important. And the entrance to the office smelled like fish. I think they watered the loads of plants they have with some kind of ferlizer or at least I'm hoping that's what it was. The towels had black marks all over them and stained. When you walked in it looked clean. No elevators. Stairs only. Sucks of you have a lot of things to bring in. Thank goodness it was only one night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r256594679-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>256594679</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>We arrived very late in the night during an ice storm. The lady who checked us in was very accommodating and seemed sincere in her concern about our power being out at residence due to ice. The room was very clean and quite large for the amount we paid; but their was no market available save for a few vending machines are either out of service or run down in appearance.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r238524400-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>238524400</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Great Stay ;D</t>
+  </si>
+  <si>
+    <t>We stay here every time NASCAR is in the area.  They don't jack up their prices just because somethings going on.  The price is right, the food is A-OK, the rooms are clean and it's a pretty quiet area.  The only thing is, don't give up our room just because we arrive late.  That's why ya'll take our credit card # isn't it?</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r236633040-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>236633040</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Stay at Burleson TX Super 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I arrived late at 12:30 AM. Hotel host person was excellent in handling my walk-in late arrival. This hotel is just of IH 35 W, south of Ft. Worth TX. It is very close to many fast food places and has a gas station next door. It had a very limited complementary continental breakfast. But it was OK.  </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r232740472-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>232740472</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>This is a hotel only a few miles where we live.  My husband, 2 dogs, and I stayed one night when we were having work done to our home.  There was a "cigarette smoke smell" throughout the hotel, and it just didn't smell fresh. Even though the coffee maker had 2 coffee cups, there was only 1 packet of creamer and sugar. And the coffee came out lukewarm. The manager on duty was friendly, but he had a very thick accent and was hard to understand. We won't be back here. There are other hotels to choose from close by.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r209810625-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>209810625</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r205463856-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>205463856</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Clean, friendly staff</t>
+  </si>
+  <si>
+    <t>Pet friendly. There is a $10 pet fee, which is reasonable. Clean, coffee and breakfast (serve yourself) included. Accommodated a first floor request. Basic, although there is a swimming pool. Would definitely book here again.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r205131471-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>205131471</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r201963056-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>201963056</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>We'll Be Back</t>
+  </si>
+  <si>
+    <t>We've been on the road quite a bit lately, and I'll tell ya this was our best two nights of rest in a few nights. The room was spacious, clean, and comfortable. Complimentary breakfast is great...but I like to take breakfast to my wife (in our room), and the signs saying breakfast wasn't allowed out of this area...That's not right : (</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r200519863-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>200519863</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Good value!</t>
+  </si>
+  <si>
+    <t>Nice room, good value, decent continental breakast, friendly staff. Pull-out was poor and the ironing board was broken but overall nice, comfortable stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r189163397-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>189163397</t>
+  </si>
+  <si>
+    <t>12/31/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r183643410-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>183643410</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Just Okay</t>
+  </si>
+  <si>
+    <t>Got two rooms for the price it would have cost me to stay elsewhere.  It was quiet.  The rooms were okay and fairly clean (stain in hallway carpet upstairs).  Two drawbacks though: no elevator but only two floors and the towels were small and old.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r181000830-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>181000830</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r170504465-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>170504465</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r167227795-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>167227795</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r166355175-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>166355175</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r166185730-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>166185730</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r157231172-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>157231172</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Excellent value. We'll be back!</t>
+  </si>
+  <si>
+    <t>The staff was very pleasant. The motel was clean and inviting. Likewise, the room (including the bathroom) was exceptionally clean. Everything was in good working order. The beds were comfortable; however, the pillows were less than desirable. (My mistake. I should have brought my own from home.) Nevertheless, excellent overall stay. Have already booked the same motel for another trip next month.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r152988256-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>152988256</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r16970185-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>16970185</t>
+  </si>
+  <si>
+    <t>06/16/2008</t>
+  </si>
+  <si>
+    <t>A clean &amp; friendly place to stay</t>
+  </si>
+  <si>
+    <t>My work sends me and the guys to Burleson all the time. We have stayed with the Super 8 there off and on now for almost 2 years. The desk clerks are always friendly, the rooms are always clean, and the prices are reasonable. I haven't had any problems or complaints from my guys. We tried staying at the other places around, but they were too expensive for my company and I figure, if I can get quality service for less, then why not?</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r5936639-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>5936639</t>
+  </si>
+  <si>
+    <t>10/09/2006</t>
+  </si>
+  <si>
+    <t>Crawling with Bugs</t>
+  </si>
+  <si>
+    <t>This place is awful. There were bugs and roaches in the bathroom; and after we went to bed, a roach crawled on my daughter's arm. The beds are hard. The walls and bedspreads were dirty. All this for $70 a night - over $80 with taxes. I will never stay in another Super 8. Do not stay here!</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1947,4626 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>199</v>
+      </c>
+      <c r="O20" t="s">
+        <v>200</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>200</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>201</v>
+      </c>
+      <c r="X21" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>201</v>
+      </c>
+      <c r="X22" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" t="s">
+        <v>200</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>223</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>201</v>
+      </c>
+      <c r="X24" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" t="s">
+        <v>244</v>
+      </c>
+      <c r="L27" t="s">
+        <v>245</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>200</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>280</v>
+      </c>
+      <c r="J34" t="s">
+        <v>281</v>
+      </c>
+      <c r="K34" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" t="s">
+        <v>283</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>272</v>
+      </c>
+      <c r="O34" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s">
+        <v>295</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>296</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" t="s">
+        <v>299</v>
+      </c>
+      <c r="K37" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" t="s">
+        <v>301</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>296</v>
+      </c>
+      <c r="O37" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J38" t="s">
+        <v>305</v>
+      </c>
+      <c r="K38" t="s">
+        <v>306</v>
+      </c>
+      <c r="L38" t="s">
+        <v>307</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>308</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" t="s">
+        <v>311</v>
+      </c>
+      <c r="K39" t="s">
+        <v>312</v>
+      </c>
+      <c r="L39" t="s">
+        <v>313</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>308</v>
+      </c>
+      <c r="O39" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40" t="s">
+        <v>316</v>
+      </c>
+      <c r="K40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s">
+        <v>318</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>308</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>324</v>
+      </c>
+      <c r="O41" t="s">
+        <v>78</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" t="s">
+        <v>327</v>
+      </c>
+      <c r="K42" t="s">
+        <v>328</v>
+      </c>
+      <c r="L42" t="s">
+        <v>329</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>324</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>331</v>
+      </c>
+      <c r="J43" t="s">
+        <v>332</v>
+      </c>
+      <c r="K43" t="s">
+        <v>333</v>
+      </c>
+      <c r="L43" t="s">
+        <v>334</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>335</v>
+      </c>
+      <c r="O43" t="s">
+        <v>93</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>337</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>338</v>
+      </c>
+      <c r="J44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K44" t="s">
+        <v>340</v>
+      </c>
+      <c r="L44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>342</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>343</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>344</v>
+      </c>
+      <c r="J45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K45" t="s">
+        <v>345</v>
+      </c>
+      <c r="L45" t="s">
+        <v>346</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>342</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>347</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J46" t="s">
+        <v>349</v>
+      </c>
+      <c r="K46" t="s">
+        <v>350</v>
+      </c>
+      <c r="L46" t="s">
+        <v>351</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>342</v>
+      </c>
+      <c r="O46" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>353</v>
+      </c>
+      <c r="J47" t="s">
+        <v>354</v>
+      </c>
+      <c r="K47" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" t="s">
+        <v>360</v>
+      </c>
+      <c r="K48" t="s">
+        <v>361</v>
+      </c>
+      <c r="L48" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>357</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>369</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>370</v>
+      </c>
+      <c r="J50" t="s">
+        <v>371</v>
+      </c>
+      <c r="K50" t="s">
+        <v>372</v>
+      </c>
+      <c r="L50" t="s">
+        <v>373</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>374</v>
+      </c>
+      <c r="O50" t="s">
+        <v>78</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>376</v>
+      </c>
+      <c r="J51" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" t="s">
+        <v>378</v>
+      </c>
+      <c r="L51" t="s">
+        <v>379</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>374</v>
+      </c>
+      <c r="O51" t="s">
+        <v>93</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>381</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>382</v>
+      </c>
+      <c r="J52" t="s">
+        <v>383</v>
+      </c>
+      <c r="K52" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>386</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>388</v>
+      </c>
+      <c r="J53" t="s">
+        <v>389</v>
+      </c>
+      <c r="K53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s">
+        <v>391</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>392</v>
+      </c>
+      <c r="O53" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>393</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>394</v>
+      </c>
+      <c r="J54" t="s">
+        <v>395</v>
+      </c>
+      <c r="K54" t="s">
+        <v>396</v>
+      </c>
+      <c r="L54" t="s">
+        <v>397</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>398</v>
+      </c>
+      <c r="O54" t="s">
+        <v>200</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>399</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>400</v>
+      </c>
+      <c r="J55" t="s">
+        <v>401</v>
+      </c>
+      <c r="K55" t="s">
+        <v>402</v>
+      </c>
+      <c r="L55" t="s">
+        <v>403</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>398</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>405</v>
+      </c>
+      <c r="J56" t="s">
+        <v>406</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>407</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>408</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>409</v>
+      </c>
+      <c r="J57" t="s">
+        <v>410</v>
+      </c>
+      <c r="K57" t="s">
+        <v>411</v>
+      </c>
+      <c r="L57" t="s">
+        <v>412</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>413</v>
+      </c>
+      <c r="O57" t="s">
+        <v>78</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>414</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J58" t="s">
+        <v>416</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>413</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>417</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>418</v>
+      </c>
+      <c r="J59" t="s">
+        <v>419</v>
+      </c>
+      <c r="K59" t="s">
+        <v>420</v>
+      </c>
+      <c r="L59" t="s">
+        <v>421</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>422</v>
+      </c>
+      <c r="O59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>423</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>424</v>
+      </c>
+      <c r="J60" t="s">
+        <v>425</v>
+      </c>
+      <c r="K60" t="s">
+        <v>426</v>
+      </c>
+      <c r="L60" t="s">
+        <v>427</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>422</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>428</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>429</v>
+      </c>
+      <c r="J61" t="s">
+        <v>430</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>431</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>432</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>433</v>
+      </c>
+      <c r="J62" t="s">
+        <v>434</v>
+      </c>
+      <c r="K62" t="s">
+        <v>435</v>
+      </c>
+      <c r="L62" t="s">
+        <v>436</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>437</v>
+      </c>
+      <c r="O62" t="s">
+        <v>61</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>438</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>439</v>
+      </c>
+      <c r="J63" t="s">
+        <v>440</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>441</v>
+      </c>
+      <c r="O63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>442</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>443</v>
+      </c>
+      <c r="J64" t="s">
+        <v>444</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>445</v>
+      </c>
+      <c r="O64" t="s">
+        <v>61</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>446</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>447</v>
+      </c>
+      <c r="J65" t="s">
+        <v>448</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>445</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>449</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>450</v>
+      </c>
+      <c r="J66" t="s">
+        <v>451</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>115</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>445</v>
+      </c>
+      <c r="O66" t="s">
+        <v>61</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>452</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>453</v>
+      </c>
+      <c r="J67" t="s">
+        <v>454</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O67" t="s">
+        <v>61</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>456</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>457</v>
+      </c>
+      <c r="J68" t="s">
+        <v>458</v>
+      </c>
+      <c r="K68" t="s">
+        <v>459</v>
+      </c>
+      <c r="L68" t="s">
+        <v>460</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>461</v>
+      </c>
+      <c r="O68" t="s">
+        <v>61</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>462</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>463</v>
+      </c>
+      <c r="J69" t="s">
+        <v>464</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s">
+        <v>115</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>465</v>
+      </c>
+      <c r="O69" t="s">
+        <v>200</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>466</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>467</v>
+      </c>
+      <c r="J70" t="s">
+        <v>468</v>
+      </c>
+      <c r="K70" t="s">
+        <v>469</v>
+      </c>
+      <c r="L70" t="s">
+        <v>470</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>471</v>
+      </c>
+      <c r="O70" t="s">
+        <v>93</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36453</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>472</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>473</v>
+      </c>
+      <c r="J71" t="s">
+        <v>474</v>
+      </c>
+      <c r="K71" t="s">
+        <v>475</v>
+      </c>
+      <c r="L71" t="s">
+        <v>476</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>476</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_725.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_725.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>smhut2018</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Have not stayed at this location before but wasVery pleased how clean and  friendly staff and quiet. Stayed an extra day More</t>
   </si>
   <si>
+    <t>schallman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r567423511-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>The motel met all my expectations for a Super 8. The room was clean and, right temperature and easy access to internet. Would definitely stay againMore</t>
   </si>
   <si>
+    <t>kelliorange</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r563239809-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>It had vacancy &amp; was cheap. That’s about all I can say positive. It had a live roach, stunk of fried foods. Smells of weed became overwhelmingly strong around 10 pm. Cigarette smoke became overwhelming at 9 am. There was hair in the tub- not ours. The beds were hard as rocks, and the pillows tiny/clumpy.More</t>
   </si>
   <si>
+    <t>charlesbZ6178SO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r551859834-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>The hotel bathroom was clean. Lately every hotel we are in has a dirty bathroom. There was no clock. It was small compared to other hotels but make up for it by having good staff and room.More</t>
   </si>
   <si>
+    <t>Weekend_Stayer90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r541250950-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>I stay at this hotel when my friend comes into town a few times a month. It's nothing luxuriou, but very quiet and quant to pass the weekend. Cleanliness is key and the room and bedding is always clean... and most important... NO BED BUGS.More</t>
   </si>
   <si>
+    <t>erikaf617</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r538102874-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>I just came here to sleep. The rooms are old and the bar that holds the shower curtain was falling down. It needs to be updated, but I was able to sleep even though some kids were running up and down the halls.More</t>
   </si>
   <si>
+    <t>joeu249</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r531240865-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>This is a very good hotel I stay here every time I’m in town on business all the employees treat you great it has great access to good restaurants and shopping More</t>
   </si>
   <si>
+    <t>briansV9950ZW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r527852026-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>The rooms stuck of cigarette smoke and marijuana and mildew. The shower curtain fell during my shower. Will not stay at this hotel ever again nor will I refer any family or friends More</t>
   </si>
   <si>
+    <t>jonnaw7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r525487639-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>S5449KEandreah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r507926946-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -402,6 +432,9 @@
     <t>My trip started with me having issues when trying to book rooms via the internet.  System was acting up and appeared to freeze.  Finally received message that the Reservation portal was undergoing maintenance and to call directly.Made reservations by phone but did not receive any confirmations.  I called the day before leaving and was told I had four reservations.  Needless to say I spoke to 8 different people on the phone with no resolution.When I arrived April managed to help get it resolved and duplication was taken care of.  I won't be booking via the internet on this site.  Not worth it.The stay did turn out well.  Rooms were clean and comfortable for the price.More</t>
   </si>
   <si>
+    <t>B4768HMdanield</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r505520485-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -426,6 +459,9 @@
     <t>Hotel could have been a lot cleaner. Toilet had a lot of problems flushing. It was only $50/night, so, I guess you get what you pay for. More</t>
   </si>
   <si>
+    <t>JandRDuncan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r496582166-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -450,6 +486,9 @@
     <t>We had reservations and had to make changes twice due to a death in the family. Front desk personnel was wonderful even changing our reservations at time of check in and even offered us a discount. Then checked on us once we got to our rooms. We were very satisfied with our quiet room and very comfy bed. The breakfast was very adequate for everyone in our group, we especially like that there was fresh fruit and Texas shaped Waffles. If in the area we would definitely stay again.More</t>
   </si>
   <si>
+    <t>billym325</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r492441776-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -477,6 +516,9 @@
     <t>I am a frequent traveler between Illinois and Texas. I have stayed at the Super 8 in Burleson many times and I have never had a bad experience. The only negative would be the breakfast does not meet the same level of Very Good, but is only Fair. More</t>
   </si>
   <si>
+    <t>98michelee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r491149833-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -504,6 +546,9 @@
     <t>This Motel is located near the freeway with easy  on and off access. Motel  within minutes of major large shopping center and  numerous restaurants for any taste and budget. The staff were friendly, helpful, the room was clean and the sheets fresh! Regular sized pool you can really swim around in and a shower with real hot water to soothe those tense muscles from traveling all day. Yes, this is one we will be coming back to!More</t>
   </si>
   <si>
+    <t>aedjz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r489827645-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -528,6 +573,9 @@
     <t>Everything was great. Until the morning when we wanted to take a SHOWER... the shower head it's self did not work. There was no way to get the water to flow into the shower head so my husband, kids and myself had to take baths. Which it was ok but we all prefer showers. More</t>
   </si>
   <si>
+    <t>Albert J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r476557894-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -555,6 +603,9 @@
     <t>Reservation was set for 2nd floor. Found out upon check in, No elevators. Asked for 1st floor. Computers were down and not able change. Pool was down. Next day, when cking out computers still down, no receipt available. Overall Room price too high when quality compared to other hotels in area.More</t>
   </si>
   <si>
+    <t>esc3157</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r471453954-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -582,6 +633,9 @@
     <t>Glad to get a ground king room. Was a non smoking room, but the hallway reaked of smoke. The room was clean though. Came to see family and got a good rest between visits.More</t>
   </si>
   <si>
+    <t>charleneh593</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r470954257-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -600,6 +654,9 @@
     <t>I was very surprised to find this hotel with such quality. The room was quiet and check-in was smooth. The only problem I had was they tried to charge my card before I actually arrived. I discussed my problem with the hotel rep. More</t>
   </si>
   <si>
+    <t>williamhQ2637YL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r452826980-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -651,6 +708,9 @@
     <t>This Super 8 was clean and I had no major concerns with the room. The breakfast is not the best. I have stayed at this motel three or four times though and except for the disappointing breakfast, I have been satisfied enough to return. Cost is reasonable. More</t>
   </si>
   <si>
+    <t>Marty164</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r440773288-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -672,6 +732,9 @@
     <t>After a tiring day of driving, we were fortunate to find this Super 8. The room was quiet and clean, beds were comfortable, and since it was on the first floor, we didn't have to haul any luggage upstairs. Our only complaint was that although our room was a non-smoking room, the hallway outside of our room absolutely reeked of smoke. The hotel was also close to several places to eat. More</t>
   </si>
   <si>
+    <t>E4133WAbrendas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r431236804-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -693,6 +756,9 @@
     <t>Everything was good except the coffee cups are to small and the hotel requires you to eat breakfast in lobby. You can't take it to go or take back to room. And the hall ways always smell of heavy cigarette smoke!!!!More</t>
   </si>
   <si>
+    <t>bethw364</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r431063965-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -711,6 +777,9 @@
     <t>Staff was excellent, condition of hotel was not. Bathroom tile was cracked, and not just a little. Other parts of the room needed repair also. Ice machine was broken. Need I go on? I moved to another hotel chain for my next four nights in town.More</t>
   </si>
   <si>
+    <t>denniskG6970MU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r430046329-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -726,6 +795,9 @@
     <t>We travel with our Min Pin dog. We have stayed here several times when traveling through Dallas area. we will stay again on our next trip north.</t>
   </si>
   <si>
+    <t>H1849PSterrys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r421793832-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -741,6 +813,9 @@
     <t>Great comfortable place to stay and relax. Blow off steam and get away from the weirdos in life, but as soon as you leave here they come like mindless zombies. Ahhhh!</t>
   </si>
   <si>
+    <t>commochief345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r421580976-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -756,6 +831,9 @@
     <t>The staff was accommodating and rooms were clean. Would not have a problem staying there again.</t>
   </si>
   <si>
+    <t>J2378POlarryr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r421537736-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -768,6 +846,9 @@
     <t>Very friendly customer service. I drive a commercial vehicle, so it's important to get a good nights sleep. The room was clean, well kept and quite. I would stay here again!</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r407913391-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -786,6 +867,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>182bryank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r400452891-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -804,6 +888,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Glenda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r393364480-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -819,6 +906,9 @@
     <t>Basic and clean. Surprisingly quiet. Easy to get to from the interstate. I didn't see an elevator but I was fine with the stairs.</t>
   </si>
   <si>
+    <t>Paul R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r387862433-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -855,6 +945,9 @@
     <t xml:space="preserve">I found the Super 8 to be very satisfactory in all ways except one. There was mold on walls and floor in bathroom especially associated with the cracked floor tiles. The front desk, when I reported it, indicated that they were in the process of a remodel for the bathrooms. </t>
   </si>
   <si>
+    <t>jerry b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r380711658-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -870,6 +963,9 @@
     <t>I have stayed here many times over the past 10 years. This hotel has had the same owners, and they have proven over the years, that they really know the hotel business!Always clean, quiet, and up to anyone's standards.This hotel is also in walking distance from several restaurants.I recommend this hotel for business and families.</t>
   </si>
   <si>
+    <t>HorseyJan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r365411277-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -891,6 +987,9 @@
     <t>I cannot recommend this motel, even with the low price. When we requested more towels (for a room with 5 people), we were given ONE towel. When we requested an alarm clock for the room, we were given two broken ones in a row. When we asked for an additional blanket, we were told that the last one had already been given out. The smell of carpet deodorizer was overpowering and not even completely vacuumed up (white powder behind the door).  The smell of smoke was clearly detected in the non smoking room because smoke comes in from the smoky hallways. The smoke smell and chemical smells in the non smoking room upstairs triggered an asthma attack in one of our children. One adult emerged with very large (50 cent sized) red bites of some kind, acquired from the bed. April at the desk was very kind and helpful, but limited in what she could do. I cannot recommend this place--- at any price. More</t>
   </si>
   <si>
+    <t>DAA1987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r359169834-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1008,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Mary M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r357095749-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1029,9 @@
     <t>This motel was a good value over the one we have stayed with in the past. The room was roomy and laid out well. It was clean &amp; everything in good working order. My one complaint with the room was that the walls seemed very thin. We could hear people sneezing &amp; coughing on either side of us in their rooms. The heater/AC was super quiet when operating &amp; we had a good night's sleep in the king bed. Breakfast was fairly good, except on Sun morning at 7:10 am they were already out of waffle batter. There weren't many people there at breakfast either. Staff was very pleasant. We will stay here again. Saved about $60 over the Best Western for 2 nights.More</t>
   </si>
   <si>
+    <t>Jerry L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r341305237-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1050,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Gwendolyn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r341035393-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1068,9 @@
     <t xml:space="preserve">The room was fine.   The breakfast was also good.  Staff at the front desk were not helpful at times.  </t>
   </si>
   <si>
+    <t>cherylmI655AN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r339003925-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1086,9 @@
     <t>Unexpectedly, in the middle of the night, my son and I found ourselves in need of a hotel because he had become very ill. We stayed at Motel 8 and found the staff so accommodating, kind, helpful, and informative. We were there 2 days and found it very peaceful. The housekeeping staff were sweethearts. Kudos to Motel 8! The price, the staff, the room...we would stay again should we ever find ourselves back in the area.</t>
   </si>
   <si>
+    <t>Jeff655</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r327450367-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1107,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Val G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r324539091-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1125,9 @@
     <t>Great location lots of restaurants within walking distance.People at the desk were wonderful and made our stay very enjoyable.Our drive through Fort Worth was very stressful.</t>
   </si>
   <si>
+    <t>AdvTravelR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r323620242-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1149,9 @@
     <t>Epic rainfall in Texas so all flights to Austin were cancelled. I opted to rent a car and drive south but needed a place to stay for the night. Super 8 wasn't my first choice but I'm glad I stayed. Sure, it's not as nice as say the Hilton but it had everything I needed and was provided a nice comfortable rest in a clean room. Service was great and while the rooms may not have been super nice, it was surprisingly sufficient and including a fridge, microwave, coffee and free breakfast. Price was reasonable too. Room included free wi-fi which was surprisingly fast. I would have no problem at all returning and will consider Super 8 more often because of this experience.More</t>
   </si>
   <si>
+    <t>B8110ILangelac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r314133443-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1170,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>telina05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r314029629-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1185,9 @@
     <t xml:space="preserve">Do not stay here. Unsafe area, questionable characters hanging around, filthy rooms, prostitution, drug deals, stench of weed, dirty rooms, unfriendly staff and security guard. The parking lot had heavy illegal activity going on in broad daylight and upon entering the halls they reeked of weed. Our room had stains on the walls, roaches (I counted 4), stains on the bedding, soiled fabric on the chairs and benches. The staff was extremely rude. DO NO STAY HERE. Disgusting. </t>
   </si>
   <si>
+    <t>the5sranch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r309117959-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1203,9 @@
     <t xml:space="preserve">The room was nice &amp; clean. INcluded everything I needed. But I had asked for a room closer to the lobby but room 112 was almost to the other end of hallway. There were plenty of vacant rooms for me to get a closer room. </t>
   </si>
   <si>
+    <t>K1911AYrobertd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r291309471-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1224,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>keen52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r290696886-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1242,9 @@
     <t xml:space="preserve">Reservation made easy, staff was super!! Room clean, pool clean. Where they fail is the out dated coke machines on 2nd floor. Even though the room was no smoking, the halls smelled of old stale cigarette smoke.   </t>
   </si>
   <si>
+    <t>richardcK8439EB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r281870661-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1263,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Thomas A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r261870532-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1284,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Wendy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r261525753-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1305,9 @@
     <t>I have stayed at many of the super 8 motels. This one isn't one that I'm impressed with. The room read very out of date.  It was a no smoking room and the blanket had all kinds of burn marks and the actual AC unit was filled with something that I wouldn't turn the fan on. Looked like mold. If I had to do it again don't think I would stay here.  The staff was OK. But not very welcoming. Guess their cell phones were more important. And the entrance to the office smelled like fish. I think they watered the loads of plants they have with some kind of ferlizer or at least I'm hoping that's what it was. The towels had black marks all over them and stained. When you walked in it looked clean. No elevators. Stairs only. Sucks of you have a lot of things to bring in. Thank goodness it was only one night. More</t>
   </si>
   <si>
+    <t>Thomas N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r256594679-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1344,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>John E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r236633040-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1215,6 +1365,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Kathy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r232740472-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1383,9 @@
     <t>This is a hotel only a few miles where we live.  My husband, 2 dogs, and I stayed one night when we were having work done to our home.  There was a "cigarette smoke smell" throughout the hotel, and it just didn't smell fresh. Even though the coffee maker had 2 coffee cups, there was only 1 packet of creamer and sugar. And the coffee came out lukewarm. The manager on duty was friendly, but he had a very thick accent and was hard to understand. We won't be back here. There are other hotels to choose from close by.</t>
   </si>
   <si>
+    <t>Edith S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r209810625-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1398,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>CJRvallarta2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r205463856-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1419,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Holly816</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r205131471-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1287,6 +1449,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Shawn W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r200519863-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +1467,9 @@
     <t>Nice room, good value, decent continental breakast, friendly staff. Pull-out was poor and the ironing board was broken but overall nice, comfortable stay!</t>
   </si>
   <si>
+    <t>Cori D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r189163397-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1314,6 +1482,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>BEMJR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r183643410-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1332,6 +1503,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Cherilyn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r181000830-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1518,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Lisette H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r170504465-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1356,6 +1533,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Debbie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r167227795-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1365,6 +1545,9 @@
     <t>07/11/2013</t>
   </si>
   <si>
+    <t>Marietta C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r166355175-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1374,6 +1557,9 @@
     <t>07/04/2013</t>
   </si>
   <si>
+    <t>Guadalupe H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r166185730-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1386,6 +1572,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Larry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r157231172-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1404,6 +1593,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>G_R0driguez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r152988256-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1416,6 +1608,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>BluTrvlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r16970185-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1432,6 +1627,9 @@
   </si>
   <si>
     <t>June 2008</t>
+  </si>
+  <si>
+    <t>TXGirl2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d109164-r5936639-Super_8_Burleson_Fort_Worth_Area-Burleson_Texas.html</t>
@@ -1951,43 +2149,47 @@
       <c r="A2" t="n">
         <v>36453</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178459</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2009,56 +2211,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36453</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178460</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2080,56 +2286,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36453</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178461</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2151,56 +2361,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36453</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178462</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2222,56 +2436,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36453</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178463</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
         <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2293,56 +2511,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36453</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178464</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2364,56 +2586,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36453</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178465</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>98</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" t="s">
-        <v>93</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2435,56 +2661,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36453</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178466</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2506,54 +2736,58 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36453</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178467</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2575,56 +2809,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36453</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178468</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2646,56 +2884,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36453</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178469</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2717,47 +2959,51 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36453</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178470</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -2774,56 +3020,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36453</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178471</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2845,56 +3095,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36453</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178472</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2916,56 +3170,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36453</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178473</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2987,56 +3245,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36453</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>3966</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -3058,56 +3320,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36453</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178474</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3129,56 +3395,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="X18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36453</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178475</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3200,56 +3470,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="X19" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36453</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178476</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3271,56 +3545,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36453</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178470</v>
+      </c>
+      <c r="C21" t="s">
+        <v>156</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3342,56 +3620,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X21" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36453</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178477</v>
+      </c>
+      <c r="C22" t="s">
+        <v>230</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3413,56 +3695,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36453</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178478</v>
+      </c>
+      <c r="C23" t="s">
+        <v>238</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" t="s">
+        <v>241</v>
+      </c>
+      <c r="K23" t="s">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s">
+        <v>243</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>244</v>
+      </c>
+      <c r="O23" t="s">
         <v>219</v>
-      </c>
-      <c r="J23" t="s">
-        <v>220</v>
-      </c>
-      <c r="K23" t="s">
-        <v>221</v>
-      </c>
-      <c r="L23" t="s">
-        <v>222</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>223</v>
-      </c>
-      <c r="O23" t="s">
-        <v>200</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3484,56 +3770,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X23" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36453</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178479</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3555,56 +3845,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X24" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36453</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178480</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3628,50 +3922,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36453</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178481</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3695,50 +3993,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36453</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178482</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3762,50 +4064,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36453</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178483</v>
+      </c>
+      <c r="C28" t="s">
+        <v>271</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3829,50 +4135,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36453</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C29" t="s">
+        <v>276</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3896,50 +4206,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36453</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178484</v>
+      </c>
+      <c r="C30" t="s">
+        <v>283</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="J30" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="K30" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3963,50 +4277,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36453</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>92341</v>
+      </c>
+      <c r="C31" t="s">
+        <v>290</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="O31" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4030,50 +4348,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36453</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>2144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>296</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -4097,50 +4419,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36453</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>178470</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4164,50 +4490,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36453</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178485</v>
+      </c>
+      <c r="C34" t="s">
+        <v>309</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="O34" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4221,50 +4551,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36453</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178486</v>
+      </c>
+      <c r="C35" t="s">
+        <v>315</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4278,50 +4612,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36453</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178487</v>
+      </c>
+      <c r="C36" t="s">
+        <v>323</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4339,50 +4677,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36453</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>3739</v>
+      </c>
+      <c r="C37" t="s">
+        <v>330</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="O37" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4396,50 +4738,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36453</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>55898</v>
+      </c>
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4463,50 +4809,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36453</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>39957</v>
+      </c>
+      <c r="C39" t="s">
+        <v>344</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="J39" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="O39" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4530,50 +4880,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36453</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178488</v>
+      </c>
+      <c r="C40" t="s">
+        <v>350</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4597,50 +4951,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36453</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>178489</v>
+      </c>
+      <c r="C41" t="s">
+        <v>356</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="J41" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="O41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4656,50 +5014,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36453</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>178490</v>
+      </c>
+      <c r="C42" t="s">
+        <v>363</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="K42" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4723,50 +5085,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36453</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178491</v>
+      </c>
+      <c r="C43" t="s">
+        <v>369</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="J43" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="K43" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="O43" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4786,50 +5152,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36453</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>178492</v>
+      </c>
+      <c r="C44" t="s">
+        <v>377</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="J44" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4853,50 +5223,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36453</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178493</v>
+      </c>
+      <c r="C45" t="s">
+        <v>384</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="J45" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="K45" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4910,50 +5284,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36453</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>178494</v>
+      </c>
+      <c r="C46" t="s">
+        <v>389</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="J46" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O46" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4977,50 +5355,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36453</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178495</v>
+      </c>
+      <c r="C47" t="s">
+        <v>395</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="J47" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="K47" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="L47" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5038,50 +5420,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36453</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178496</v>
+      </c>
+      <c r="C48" t="s">
+        <v>402</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="J48" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="K48" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="L48" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5105,50 +5491,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36453</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178497</v>
+      </c>
+      <c r="C49" t="s">
+        <v>408</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="J49" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="K49" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P49" t="n">
         <v>2</v>
@@ -5172,50 +5562,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36453</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>64905</v>
+      </c>
+      <c r="C50" t="s">
+        <v>415</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="J50" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="K50" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="L50" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="O50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5239,50 +5633,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36453</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>88382</v>
+      </c>
+      <c r="C51" t="s">
+        <v>422</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="J51" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="K51" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="L51" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="O51" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5296,50 +5694,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36453</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>58152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>429</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="J52" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="K52" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="L52" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="O52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5363,50 +5765,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36453</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>178488</v>
+      </c>
+      <c r="C53" t="s">
+        <v>356</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="J53" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="K53" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="L53" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="O53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5430,50 +5836,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36453</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>22651</v>
+      </c>
+      <c r="C54" t="s">
+        <v>442</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="J54" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="K54" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="L54" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="O54" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5497,50 +5907,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36453</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>4079</v>
+      </c>
+      <c r="C55" t="s">
+        <v>449</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="J55" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="K55" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="L55" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5554,35 +5968,39 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36453</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178498</v>
+      </c>
+      <c r="C56" t="s">
+        <v>455</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="J56" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5590,10 +6008,10 @@
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="O56" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -5614,51 +6032,52 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36453</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>178499</v>
+      </c>
+      <c r="C57" t="s">
+        <v>460</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="J57" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="K57" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="L57" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="O57" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5682,35 +6101,39 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36453</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>178500</v>
+      </c>
+      <c r="C58" t="s">
+        <v>467</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="J58" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5718,10 +6141,10 @@
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="O58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -5742,51 +6165,52 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36453</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>178488</v>
+      </c>
+      <c r="C59" t="s">
+        <v>356</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="J59" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="K59" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="L59" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="O59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5810,50 +6234,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36453</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>17750</v>
+      </c>
+      <c r="C60" t="s">
+        <v>477</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="J60" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="K60" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="L60" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5877,35 +6305,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36453</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>178501</v>
+      </c>
+      <c r="C61" t="s">
+        <v>483</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="J61" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -5913,10 +6345,10 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="O61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5927,51 +6359,52 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36453</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>178502</v>
+      </c>
+      <c r="C62" t="s">
+        <v>488</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="J62" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="K62" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="L62" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="O62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5995,35 +6428,39 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36453</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>178503</v>
+      </c>
+      <c r="C63" t="s">
+        <v>495</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="J63" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -6031,10 +6468,10 @@
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="O63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6055,36 +6492,37 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36453</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>178504</v>
+      </c>
+      <c r="C64" t="s">
+        <v>500</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="J64" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6092,10 +6530,10 @@
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="O64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6116,36 +6554,37 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36453</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>5674</v>
+      </c>
+      <c r="C65" t="s">
+        <v>505</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>447</v>
+        <v>507</v>
       </c>
       <c r="J65" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6153,10 +6592,10 @@
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="O65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6177,49 +6616,50 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36453</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>178505</v>
+      </c>
+      <c r="C66" t="s">
+        <v>509</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
       <c r="J66" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="O66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -6243,35 +6683,39 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36453</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>178506</v>
+      </c>
+      <c r="C67" t="s">
+        <v>513</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="J67" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6279,10 +6723,10 @@
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="O67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6303,51 +6747,52 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36453</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>3975</v>
+      </c>
+      <c r="C68" t="s">
+        <v>518</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="J68" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="K68" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="L68" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>461</v>
+        <v>524</v>
       </c>
       <c r="O68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6371,48 +6816,52 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36453</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>178507</v>
+      </c>
+      <c r="C69" t="s">
+        <v>525</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="J69" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="O69" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6436,50 +6885,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36453</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>178508</v>
+      </c>
+      <c r="C70" t="s">
+        <v>530</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="J70" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="K70" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="L70" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="O70" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6503,41 +6956,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>36453</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>178509</v>
+      </c>
+      <c r="C71" t="s">
+        <v>537</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="J71" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="K71" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="L71" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
@@ -6564,7 +7021,7 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
